--- a/app/Task16/data.xlsx
+++ b/app/Task16/data.xlsx
@@ -15,12 +15,27 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="263">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="264">
   <si>
     <t>PUBLISHED DATE</t>
   </si>
   <si>
     <t>MESSAGES</t>
+  </si>
+  <si>
+    <t>Thursday, 21/07/2016</t>
+  </si>
+  <si>
+    <t>RT @DYECASTING: I just made a tut. ;P // How to Install and Set Up a New #WordPress #WooCommerce Theme https://t.co/LZNOyVK7Mc via @TutsPlu…</t>
+  </si>
+  <si>
+    <t>Take a look at what's new in #Laravel 5.2. https://t.co/bWnBacOMwT https://t.co/jK9KNZgBLI</t>
+  </si>
+  <si>
+    <t>Wednesday, 20/07/2016</t>
+  </si>
+  <si>
+    <t>How to install &amp;amp; set up a new #WordPress WooCommerce theme. https://t.co/ZWUTw3OkoE</t>
   </si>
   <si>
     <t>Tuesday, 19/07/2016</t>
@@ -797,18 +812,6 @@
   </si>
   <si>
     <t>Web Components are a new way to package and reuse self-contained components built with HTML, CSS, and JavaScript. https://t.co/hr1MIk1Yr6</t>
-  </si>
-  <si>
-    <t>Kick-Start #WordPress Development With Twig: Timber Image, Menu, and User https://t.co/0pU0qLxWHN via @mrahma</t>
-  </si>
-  <si>
-    <t>Hands On Improving Google PageSpeed https://t.co/rxdqG6bBTF via @reifman</t>
-  </si>
-  <si>
-    <t>Thursday, 28/04/2016</t>
-  </si>
-  <si>
-    <t>Learn some of the fundamental tools for web development: JavaScript, jQuery, NPM and Bootstrap! https://t.co/NOICvBFVwU</t>
   </si>
 </sst>
 </file>
@@ -1177,39 +1180,39 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
         <v>4</v>
-      </c>
-      <c r="B3" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
         <v>6</v>
-      </c>
-      <c r="B4" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" t="s">
         <v>8</v>
-      </c>
-      <c r="B5" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" t="s">
         <v>10</v>
-      </c>
-      <c r="B6" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B7" t="s">
         <v>12</v>
@@ -1217,18 +1220,18 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B9" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -1236,7 +1239,7 @@
         <v>15</v>
       </c>
       <c r="B10" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -1244,7 +1247,7 @@
         <v>15</v>
       </c>
       <c r="B11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -1252,55 +1255,55 @@
         <v>15</v>
       </c>
       <c r="B12" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B13" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B14" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B15" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B16" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="B18" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -1308,12 +1311,12 @@
         <v>26</v>
       </c>
       <c r="B19" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B20" t="s">
         <v>29</v>
@@ -1321,7 +1324,7 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B21" t="s">
         <v>30</v>
@@ -1329,87 +1332,87 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B22" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="B23" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="B24" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B25" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B26" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B27" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="B28" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="B29" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B30" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B31" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="B32" t="s">
         <v>44</v>
@@ -1417,15 +1420,15 @@
     </row>
     <row r="33" spans="1:2">
       <c r="A33" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B33" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B34" t="s">
         <v>47</v>
@@ -1433,103 +1436,103 @@
     </row>
     <row r="35" spans="1:2">
       <c r="A35" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B35" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B36" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="B37" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="B38" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="B39" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B40" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B41" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B42" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="B43" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="B44" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="B45" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B46" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="B47" t="s">
         <v>63</v>
@@ -1537,7 +1540,7 @@
     </row>
     <row r="48" spans="1:2">
       <c r="A48" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="B48" t="s">
         <v>64</v>
@@ -1545,23 +1548,23 @@
     </row>
     <row r="49" spans="1:2">
       <c r="A49" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B49" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B50" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B51" t="s">
         <v>69</v>
@@ -1569,7 +1572,7 @@
     </row>
     <row r="52" spans="1:2">
       <c r="A52" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B52" t="s">
         <v>70</v>
@@ -1585,143 +1588,143 @@
     </row>
     <row r="54" spans="1:2">
       <c r="A54" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B54" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B55" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B56" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="57" spans="1:2">
       <c r="A57" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B57" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B58" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="A59" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B59" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="A60" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B60" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="61" spans="1:2">
       <c r="A61" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B61" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="62" spans="1:2">
       <c r="A62" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="B62" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="63" spans="1:2">
       <c r="A63" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="B63" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="64" spans="1:2">
       <c r="A64" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B64" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="65" spans="1:2">
       <c r="A65" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B65" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="66" spans="1:2">
       <c r="A66" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B66" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="67" spans="1:2">
       <c r="A67" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="B67" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="68" spans="1:2">
       <c r="A68" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="B68" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="69" spans="1:2">
       <c r="A69" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B69" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="70" spans="1:2">
       <c r="A70" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B70" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="71" spans="1:2">
       <c r="A71" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="B71" t="s">
         <v>95</v>
@@ -1729,135 +1732,135 @@
     </row>
     <row r="72" spans="1:2">
       <c r="A72" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B72" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="73" spans="1:2">
       <c r="A73" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B73" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="74" spans="1:2">
       <c r="A74" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="B74" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="75" spans="1:2">
       <c r="A75" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="B75" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="76" spans="1:2">
       <c r="A76" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B76" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="77" spans="1:2">
       <c r="A77" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B77" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="78" spans="1:2">
       <c r="A78" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B78" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="79" spans="1:2">
       <c r="A79" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="B79" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="80" spans="1:2">
       <c r="A80" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="B80" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="81" spans="1:2">
       <c r="A81" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B81" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="82" spans="1:2">
       <c r="A82" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B82" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="83" spans="1:2">
       <c r="A83" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B83" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="84" spans="1:2">
       <c r="A84" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="B84" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="85" spans="1:2">
       <c r="A85" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="B85" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="86" spans="1:2">
       <c r="A86" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B86" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="87" spans="1:2">
       <c r="A87" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B87" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="88" spans="1:2">
       <c r="A88" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="B88" t="s">
         <v>116</v>
@@ -1873,15 +1876,15 @@
     </row>
     <row r="90" spans="1:2">
       <c r="A90" t="s">
+        <v>117</v>
+      </c>
+      <c r="B90" t="s">
         <v>119</v>
-      </c>
-      <c r="B90" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="91" spans="1:2">
       <c r="A91" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B91" t="s">
         <v>121</v>
@@ -1913,42 +1916,42 @@
     </row>
     <row r="95" spans="1:2">
       <c r="A95" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="B95" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="96" spans="1:2">
       <c r="A96" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B96" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="97" spans="1:2">
       <c r="A97" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B97" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="98" spans="1:2">
       <c r="A98" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B98" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="99" spans="1:2">
       <c r="A99" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="B99" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="100" spans="1:2">
@@ -1956,7 +1959,7 @@
         <v>133</v>
       </c>
       <c r="B100" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="101" spans="1:2">
@@ -1964,7 +1967,7 @@
         <v>133</v>
       </c>
       <c r="B101" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="102" spans="1:2">
@@ -1972,15 +1975,15 @@
         <v>133</v>
       </c>
       <c r="B102" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="103" spans="1:2">
       <c r="A103" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="B103" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
     </row>
     <row r="104" spans="1:2">
@@ -1988,7 +1991,7 @@
         <v>138</v>
       </c>
       <c r="B104" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="105" spans="1:2">
@@ -1996,12 +1999,12 @@
         <v>138</v>
       </c>
       <c r="B105" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="106" spans="1:2">
       <c r="A106" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="B106" t="s">
         <v>142</v>
@@ -2009,15 +2012,15 @@
     </row>
     <row r="107" spans="1:2">
       <c r="A107" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B107" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="108" spans="1:2">
       <c r="A108" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B108" t="s">
         <v>145</v>
@@ -2025,15 +2028,15 @@
     </row>
     <row r="109" spans="1:2">
       <c r="A109" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B109" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="110" spans="1:2">
       <c r="A110" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B110" t="s">
         <v>148</v>
@@ -2049,15 +2052,15 @@
     </row>
     <row r="112" spans="1:2">
       <c r="A112" t="s">
+        <v>149</v>
+      </c>
+      <c r="B112" t="s">
         <v>151</v>
-      </c>
-      <c r="B112" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="113" spans="1:2">
       <c r="A113" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B113" t="s">
         <v>153</v>
@@ -2081,15 +2084,15 @@
     </row>
     <row r="116" spans="1:2">
       <c r="A116" t="s">
+        <v>156</v>
+      </c>
+      <c r="B116" t="s">
         <v>158</v>
-      </c>
-      <c r="B116" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="117" spans="1:2">
       <c r="A117" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B117" t="s">
         <v>160</v>
@@ -2105,26 +2108,26 @@
     </row>
     <row r="119" spans="1:2">
       <c r="A119" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B119" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="120" spans="1:2">
       <c r="A120" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B120" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="121" spans="1:2">
       <c r="A121" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="B121" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="122" spans="1:2">
@@ -2132,7 +2135,7 @@
         <v>166</v>
       </c>
       <c r="B122" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="123" spans="1:2">
@@ -2140,7 +2143,7 @@
         <v>166</v>
       </c>
       <c r="B123" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="124" spans="1:2">
@@ -2148,52 +2151,52 @@
         <v>166</v>
       </c>
       <c r="B124" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="125" spans="1:2">
       <c r="A125" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="B125" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="126" spans="1:2">
       <c r="A126" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="B126" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
     </row>
     <row r="127" spans="1:2">
       <c r="A127" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="B127" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="128" spans="1:2">
       <c r="A128" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B128" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
     <row r="129" spans="1:2">
       <c r="A129" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B129" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
     <row r="130" spans="1:2">
       <c r="A130" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="B130" t="s">
         <v>177</v>
@@ -2201,34 +2204,34 @@
     </row>
     <row r="131" spans="1:2">
       <c r="A131" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="B131" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
     <row r="132" spans="1:2">
       <c r="A132" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="B132" t="s">
-        <v>170</v>
+        <v>180</v>
       </c>
     </row>
     <row r="133" spans="1:2">
       <c r="A133" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="B133" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
     </row>
     <row r="134" spans="1:2">
       <c r="A134" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="B134" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
     </row>
     <row r="135" spans="1:2">
@@ -2236,7 +2239,7 @@
         <v>181</v>
       </c>
       <c r="B135" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
     </row>
     <row r="136" spans="1:2">
@@ -2244,12 +2247,12 @@
         <v>181</v>
       </c>
       <c r="B136" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="137" spans="1:2">
       <c r="A137" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B137" t="s">
         <v>185</v>
@@ -2260,7 +2263,7 @@
         <v>186</v>
       </c>
       <c r="B138" t="s">
-        <v>146</v>
+        <v>187</v>
       </c>
     </row>
     <row r="139" spans="1:2">
@@ -2268,92 +2271,92 @@
         <v>186</v>
       </c>
       <c r="B139" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
     </row>
     <row r="140" spans="1:2">
       <c r="A140" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="B140" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
     </row>
     <row r="141" spans="1:2">
       <c r="A141" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="B141" t="s">
-        <v>190</v>
+        <v>151</v>
       </c>
     </row>
     <row r="142" spans="1:2">
       <c r="A142" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="B142" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
     </row>
     <row r="143" spans="1:2">
       <c r="A143" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="B143" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
     </row>
     <row r="144" spans="1:2">
       <c r="A144" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="B144" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
     </row>
     <row r="145" spans="1:2">
       <c r="A145" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="B145" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
     </row>
     <row r="146" spans="1:2">
       <c r="A146" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="B146" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
     </row>
     <row r="147" spans="1:2">
       <c r="A147" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="B147" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
     </row>
     <row r="148" spans="1:2">
       <c r="A148" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="B148" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row r="149" spans="1:2">
       <c r="A149" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="B149" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="150" spans="1:2">
       <c r="A150" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="B150" t="s">
         <v>201</v>
@@ -2361,50 +2364,50 @@
     </row>
     <row r="151" spans="1:2">
       <c r="A151" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="B151" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
     </row>
     <row r="152" spans="1:2">
       <c r="A152" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="B152" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
     </row>
     <row r="153" spans="1:2">
       <c r="A153" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B153" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
     </row>
     <row r="154" spans="1:2">
       <c r="A154" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B154" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
     </row>
     <row r="155" spans="1:2">
       <c r="A155" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B155" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="156" spans="1:2">
       <c r="A156" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="B156" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
     </row>
     <row r="157" spans="1:2">
@@ -2412,7 +2415,7 @@
         <v>209</v>
       </c>
       <c r="B157" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="158" spans="1:2">
@@ -2420,7 +2423,7 @@
         <v>209</v>
       </c>
       <c r="B158" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="159" spans="1:2">
@@ -2428,15 +2431,15 @@
         <v>209</v>
       </c>
       <c r="B159" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="160" spans="1:2">
       <c r="A160" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="B160" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
     </row>
     <row r="161" spans="1:2">
@@ -2444,7 +2447,7 @@
         <v>214</v>
       </c>
       <c r="B161" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="162" spans="1:2">
@@ -2452,12 +2455,12 @@
         <v>214</v>
       </c>
       <c r="B162" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
     </row>
     <row r="163" spans="1:2">
       <c r="A163" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="B163" t="s">
         <v>218</v>
@@ -2465,26 +2468,26 @@
     </row>
     <row r="164" spans="1:2">
       <c r="A164" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="B164" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
     </row>
     <row r="165" spans="1:2">
       <c r="A165" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="B165" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
     </row>
     <row r="166" spans="1:2">
       <c r="A166" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="B166" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
     </row>
     <row r="167" spans="1:2">
@@ -2492,7 +2495,7 @@
         <v>222</v>
       </c>
       <c r="B167" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
     </row>
     <row r="168" spans="1:2">
@@ -2500,7 +2503,7 @@
         <v>222</v>
       </c>
       <c r="B168" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
     </row>
     <row r="169" spans="1:2">
@@ -2508,135 +2511,135 @@
         <v>222</v>
       </c>
       <c r="B169" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
     </row>
     <row r="170" spans="1:2">
       <c r="A170" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="B170" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
     </row>
     <row r="171" spans="1:2">
       <c r="A171" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="B171" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
     </row>
     <row r="172" spans="1:2">
       <c r="A172" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="B172" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
     </row>
     <row r="173" spans="1:2">
       <c r="A173" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="B173" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
     </row>
     <row r="174" spans="1:2">
       <c r="A174" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="B174" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
     </row>
     <row r="175" spans="1:2">
       <c r="A175" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="B175" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
     </row>
     <row r="176" spans="1:2">
       <c r="A176" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="B176" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
     </row>
     <row r="177" spans="1:2">
       <c r="A177" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="B177" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
     </row>
     <row r="178" spans="1:2">
       <c r="A178" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="B178" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
     </row>
     <row r="179" spans="1:2">
       <c r="A179" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B179" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="180" spans="1:2">
       <c r="A180" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B180" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="181" spans="1:2">
       <c r="A181" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B181" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="182" spans="1:2">
       <c r="A182" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B182" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="183" spans="1:2">
       <c r="A183" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B183" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="184" spans="1:2">
       <c r="A184" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B184" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
     </row>
     <row r="185" spans="1:2">
       <c r="A185" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="B185" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
     </row>
     <row r="186" spans="1:2">
@@ -2644,7 +2647,7 @@
         <v>245</v>
       </c>
       <c r="B186" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
     </row>
     <row r="187" spans="1:2">
@@ -2652,7 +2655,7 @@
         <v>245</v>
       </c>
       <c r="B187" t="s">
-        <v>191</v>
+        <v>248</v>
       </c>
     </row>
     <row r="188" spans="1:2">
@@ -2660,111 +2663,111 @@
         <v>245</v>
       </c>
       <c r="B188" t="s">
-        <v>168</v>
+        <v>249</v>
       </c>
     </row>
     <row r="189" spans="1:2">
       <c r="A189" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="B189" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
     </row>
     <row r="190" spans="1:2">
       <c r="A190" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="B190" t="s">
-        <v>248</v>
+        <v>196</v>
       </c>
     </row>
     <row r="191" spans="1:2">
       <c r="A191" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="B191" t="s">
-        <v>249</v>
+        <v>173</v>
       </c>
     </row>
     <row r="192" spans="1:2">
       <c r="A192" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="B192" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
     </row>
     <row r="193" spans="1:2">
       <c r="A193" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B193" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
     </row>
     <row r="194" spans="1:2">
       <c r="A194" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B194" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="195" spans="1:2">
       <c r="A195" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B195" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="196" spans="1:2">
       <c r="A196" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="B196" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="197" spans="1:2">
       <c r="A197" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="B197" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="198" spans="1:2">
       <c r="A198" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="B198" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="199" spans="1:2">
       <c r="A199" t="s">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="B199" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
     </row>
     <row r="200" spans="1:2">
       <c r="A200" t="s">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="B200" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
     </row>
     <row r="201" spans="1:2">
       <c r="A201" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B201" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
     </row>
   </sheetData>

--- a/app/Task16/data.xlsx
+++ b/app/Task16/data.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="264">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="263">
   <si>
     <t>PUBLISHED DATE</t>
   </si>
@@ -23,7 +23,19 @@
     <t>MESSAGES</t>
   </si>
   <si>
+    <t>Friday, 22/07/2016</t>
+  </si>
+  <si>
+    <t>#Android from scratch: How to store application data locally. https://t.co/bzvemz7Oep https://t.co/UguZuMSIEw</t>
+  </si>
+  <si>
+    <t>The last part of our series on Rake; FileList, Pathmap, CLEAN, CLOBBER, &amp;amp; passing arguments. https://t.co/u4cGkmSXlC https://t.co/uCq24IJuif</t>
+  </si>
+  <si>
     <t>Thursday, 21/07/2016</t>
+  </si>
+  <si>
+    <t>Milojs is the framework behind the Mail Online. See it used for a full-stack reactive connection with WebSockets. https://t.co/Qkv81jp4Ok</t>
   </si>
   <si>
     <t>RT @DYECASTING: I just made a tut. ;P // How to Install and Set Up a New #WordPress #WooCommerce Theme https://t.co/LZNOyVK7Mc via @TutsPlu…</t>
@@ -440,9 +452,6 @@
     <t>Learn how to use Subversion to keep up to date with #WordPress' nightly builds. https://t.co/GymCGOXLL7 https://t.co/UCH3pJAldl</t>
   </si>
   <si>
-    <t>Milojs is the framework behind the Mail Online. See it used for a full-stack reactive connection with WebSockets. https://t.co/Qkv81jp4Ok</t>
-  </si>
-  <si>
     <t>Trying to choose between ERB &amp;amp; Haml for Ruby templating? Learn the strengths &amp;amp; weaknesses of both. https://t.co/pGLpWM2pZp #rubyonrails</t>
   </si>
   <si>
@@ -800,18 +809,6 @@
   </si>
   <si>
     <t>20 of the Most Popular #HTML5 Game Templates https://t.co/j1txKC4ZLS via @dyecasting</t>
-  </si>
-  <si>
-    <t>Friday, 29/04/2016</t>
-  </si>
-  <si>
-    <t>With @heroku, devs can launch an app without worrying about server provisioning or configuration. https://t.co/5lo4JvG00R</t>
-  </si>
-  <si>
-    <t>Angular 2 is here and it might just change the world of web development. Get started today! https://t.co/sEvDVBdQBh</t>
-  </si>
-  <si>
-    <t>Web Components are a new way to package and reuse self-contained components built with HTML, CSS, and JavaScript. https://t.co/hr1MIk1Yr6</t>
   </si>
 </sst>
 </file>
@@ -1196,42 +1193,42 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" t="s">
         <v>7</v>
-      </c>
-      <c r="B5" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B9" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -1239,12 +1236,12 @@
         <v>15</v>
       </c>
       <c r="B10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B11" t="s">
         <v>18</v>
@@ -1252,15 +1249,15 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B12" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B13" t="s">
         <v>21</v>
@@ -1268,7 +1265,7 @@
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B14" t="s">
         <v>22</v>
@@ -1276,7 +1273,7 @@
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B15" t="s">
         <v>23</v>
@@ -1284,23 +1281,23 @@
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B16" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B18" t="s">
         <v>27</v>
@@ -1308,7 +1305,7 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B19" t="s">
         <v>28</v>
@@ -1316,7 +1313,7 @@
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B20" t="s">
         <v>29</v>
@@ -1324,15 +1321,15 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B21" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B22" t="s">
         <v>32</v>
@@ -1340,23 +1337,23 @@
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
+        <v>30</v>
+      </c>
+      <c r="B23" t="s">
         <v>33</v>
-      </c>
-      <c r="B23" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B24" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B25" t="s">
         <v>36</v>
@@ -1364,23 +1361,23 @@
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B26" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B27" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B28" t="s">
         <v>40</v>
@@ -1388,7 +1385,7 @@
     </row>
     <row r="29" spans="1:2">
       <c r="A29" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B29" t="s">
         <v>41</v>
@@ -1396,7 +1393,7 @@
     </row>
     <row r="30" spans="1:2">
       <c r="A30" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B30" t="s">
         <v>42</v>
@@ -1404,23 +1401,23 @@
     </row>
     <row r="31" spans="1:2">
       <c r="A31" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B31" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B32" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B33" t="s">
         <v>46</v>
@@ -1428,7 +1425,7 @@
     </row>
     <row r="34" spans="1:2">
       <c r="A34" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B34" t="s">
         <v>47</v>
@@ -1436,15 +1433,15 @@
     </row>
     <row r="35" spans="1:2">
       <c r="A35" t="s">
+        <v>43</v>
+      </c>
+      <c r="B35" t="s">
         <v>48</v>
-      </c>
-      <c r="B35" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B36" t="s">
         <v>50</v>
@@ -1452,15 +1449,15 @@
     </row>
     <row r="37" spans="1:2">
       <c r="A37" t="s">
+        <v>49</v>
+      </c>
+      <c r="B37" t="s">
         <v>51</v>
-      </c>
-      <c r="B37" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B38" t="s">
         <v>53</v>
@@ -1468,7 +1465,7 @@
     </row>
     <row r="39" spans="1:2">
       <c r="A39" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B39" t="s">
         <v>54</v>
@@ -1476,31 +1473,31 @@
     </row>
     <row r="40" spans="1:2">
       <c r="A40" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B40" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B41" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B42" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B43" t="s">
         <v>59</v>
@@ -1508,7 +1505,7 @@
     </row>
     <row r="44" spans="1:2">
       <c r="A44" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B44" t="s">
         <v>60</v>
@@ -1516,7 +1513,7 @@
     </row>
     <row r="45" spans="1:2">
       <c r="A45" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B45" t="s">
         <v>61</v>
@@ -1524,31 +1521,31 @@
     </row>
     <row r="46" spans="1:2">
       <c r="A46" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B46" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B47" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B48" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B49" t="s">
         <v>66</v>
@@ -1556,23 +1553,23 @@
     </row>
     <row r="50" spans="1:2">
       <c r="A50" t="s">
+        <v>62</v>
+      </c>
+      <c r="B50" t="s">
         <v>67</v>
-      </c>
-      <c r="B50" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="B51" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B52" t="s">
         <v>70</v>
@@ -1588,31 +1585,31 @@
     </row>
     <row r="54" spans="1:2">
       <c r="A54" t="s">
+        <v>71</v>
+      </c>
+      <c r="B54" t="s">
         <v>73</v>
-      </c>
-      <c r="B54" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B55" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56" t="s">
+        <v>75</v>
+      </c>
+      <c r="B56" t="s">
         <v>76</v>
-      </c>
-      <c r="B56" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="57" spans="1:2">
       <c r="A57" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B57" t="s">
         <v>78</v>
@@ -1620,7 +1617,7 @@
     </row>
     <row r="58" spans="1:2">
       <c r="A58" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B58" t="s">
         <v>79</v>
@@ -1676,23 +1673,23 @@
     </row>
     <row r="65" spans="1:2">
       <c r="A65" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B65" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="66" spans="1:2">
       <c r="A66" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B66" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="67" spans="1:2">
       <c r="A67" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B67" t="s">
         <v>91</v>
@@ -1700,7 +1697,7 @@
     </row>
     <row r="68" spans="1:2">
       <c r="A68" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B68" t="s">
         <v>92</v>
@@ -1708,7 +1705,7 @@
     </row>
     <row r="69" spans="1:2">
       <c r="A69" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B69" t="s">
         <v>93</v>
@@ -1716,23 +1713,23 @@
     </row>
     <row r="70" spans="1:2">
       <c r="A70" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B70" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="71" spans="1:2">
       <c r="A71" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B71" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="72" spans="1:2">
       <c r="A72" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B72" t="s">
         <v>97</v>
@@ -1740,7 +1737,7 @@
     </row>
     <row r="73" spans="1:2">
       <c r="A73" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B73" t="s">
         <v>98</v>
@@ -1748,15 +1745,15 @@
     </row>
     <row r="74" spans="1:2">
       <c r="A74" t="s">
+        <v>94</v>
+      </c>
+      <c r="B74" t="s">
         <v>99</v>
-      </c>
-      <c r="B74" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="75" spans="1:2">
       <c r="A75" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B75" t="s">
         <v>101</v>
@@ -1764,7 +1761,7 @@
     </row>
     <row r="76" spans="1:2">
       <c r="A76" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B76" t="s">
         <v>102</v>
@@ -1772,23 +1769,23 @@
     </row>
     <row r="77" spans="1:2">
       <c r="A77" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B77" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="78" spans="1:2">
       <c r="A78" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B78" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="79" spans="1:2">
       <c r="A79" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B79" t="s">
         <v>106</v>
@@ -1796,7 +1793,7 @@
     </row>
     <row r="80" spans="1:2">
       <c r="A80" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B80" t="s">
         <v>107</v>
@@ -1804,7 +1801,7 @@
     </row>
     <row r="81" spans="1:2">
       <c r="A81" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B81" t="s">
         <v>108</v>
@@ -1812,23 +1809,23 @@
     </row>
     <row r="82" spans="1:2">
       <c r="A82" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B82" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="83" spans="1:2">
       <c r="A83" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B83" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="84" spans="1:2">
       <c r="A84" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B84" t="s">
         <v>112</v>
@@ -1836,7 +1833,7 @@
     </row>
     <row r="85" spans="1:2">
       <c r="A85" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B85" t="s">
         <v>113</v>
@@ -1844,7 +1841,7 @@
     </row>
     <row r="86" spans="1:2">
       <c r="A86" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B86" t="s">
         <v>114</v>
@@ -1852,23 +1849,23 @@
     </row>
     <row r="87" spans="1:2">
       <c r="A87" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="B87" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="88" spans="1:2">
       <c r="A88" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="B88" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="89" spans="1:2">
       <c r="A89" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B89" t="s">
         <v>118</v>
@@ -1876,7 +1873,7 @@
     </row>
     <row r="90" spans="1:2">
       <c r="A90" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B90" t="s">
         <v>119</v>
@@ -1884,26 +1881,26 @@
     </row>
     <row r="91" spans="1:2">
       <c r="A91" t="s">
+        <v>115</v>
+      </c>
+      <c r="B91" t="s">
         <v>120</v>
-      </c>
-      <c r="B91" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="92" spans="1:2">
       <c r="A92" t="s">
+        <v>121</v>
+      </c>
+      <c r="B92" t="s">
         <v>122</v>
-      </c>
-      <c r="B92" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="93" spans="1:2">
       <c r="A93" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B93" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="94" spans="1:2">
@@ -1911,36 +1908,36 @@
         <v>124</v>
       </c>
       <c r="B94" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="95" spans="1:2">
       <c r="A95" t="s">
+        <v>126</v>
+      </c>
+      <c r="B95" t="s">
         <v>127</v>
-      </c>
-      <c r="B95" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="96" spans="1:2">
       <c r="A96" t="s">
+        <v>128</v>
+      </c>
+      <c r="B96" t="s">
         <v>129</v>
-      </c>
-      <c r="B96" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="97" spans="1:2">
       <c r="A97" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B97" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="98" spans="1:2">
       <c r="A98" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B98" t="s">
         <v>132</v>
@@ -1972,15 +1969,15 @@
     </row>
     <row r="102" spans="1:2">
       <c r="A102" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="B102" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="103" spans="1:2">
       <c r="A103" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B103" t="s">
         <v>139</v>
@@ -1988,7 +1985,7 @@
     </row>
     <row r="104" spans="1:2">
       <c r="A104" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B104" t="s">
         <v>140</v>
@@ -1996,7 +1993,7 @@
     </row>
     <row r="105" spans="1:2">
       <c r="A105" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B105" t="s">
         <v>141</v>
@@ -2004,34 +2001,34 @@
     </row>
     <row r="106" spans="1:2">
       <c r="A106" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="B106" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="107" spans="1:2">
       <c r="A107" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B107" t="s">
-        <v>144</v>
+        <v>6</v>
       </c>
     </row>
     <row r="108" spans="1:2">
       <c r="A108" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B108" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="109" spans="1:2">
       <c r="A109" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="B109" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="110" spans="1:2">
@@ -2039,15 +2036,15 @@
         <v>146</v>
       </c>
       <c r="B110" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="111" spans="1:2">
       <c r="A111" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B111" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="112" spans="1:2">
@@ -2055,79 +2052,79 @@
         <v>149</v>
       </c>
       <c r="B112" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="113" spans="1:2">
       <c r="A113" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="B113" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="114" spans="1:2">
       <c r="A114" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B114" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="115" spans="1:2">
       <c r="A115" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="B115" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="116" spans="1:2">
       <c r="A116" t="s">
+        <v>155</v>
+      </c>
+      <c r="B116" t="s">
         <v>156</v>
-      </c>
-      <c r="B116" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="117" spans="1:2">
       <c r="A117" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B117" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="118" spans="1:2">
       <c r="A118" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B118" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="119" spans="1:2">
       <c r="A119" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="B119" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="120" spans="1:2">
       <c r="A120" t="s">
+        <v>162</v>
+      </c>
+      <c r="B120" t="s">
         <v>163</v>
-      </c>
-      <c r="B120" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="121" spans="1:2">
       <c r="A121" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B121" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="122" spans="1:2">
@@ -2135,7 +2132,7 @@
         <v>166</v>
       </c>
       <c r="B122" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="123" spans="1:2">
@@ -2143,12 +2140,12 @@
         <v>166</v>
       </c>
       <c r="B123" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="124" spans="1:2">
       <c r="A124" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="B124" t="s">
         <v>170</v>
@@ -2156,31 +2153,31 @@
     </row>
     <row r="125" spans="1:2">
       <c r="A125" t="s">
+        <v>169</v>
+      </c>
+      <c r="B125" t="s">
         <v>171</v>
-      </c>
-      <c r="B125" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="126" spans="1:2">
       <c r="A126" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B126" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="127" spans="1:2">
       <c r="A127" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B127" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="128" spans="1:2">
       <c r="A128" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="B128" t="s">
         <v>175</v>
@@ -2188,7 +2185,7 @@
     </row>
     <row r="129" spans="1:2">
       <c r="A129" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="B129" t="s">
         <v>176</v>
@@ -2196,7 +2193,7 @@
     </row>
     <row r="130" spans="1:2">
       <c r="A130" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="B130" t="s">
         <v>177</v>
@@ -2204,26 +2201,26 @@
     </row>
     <row r="131" spans="1:2">
       <c r="A131" t="s">
+        <v>174</v>
+      </c>
+      <c r="B131" t="s">
         <v>178</v>
-      </c>
-      <c r="B131" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="132" spans="1:2">
       <c r="A132" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="B132" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="133" spans="1:2">
       <c r="A133" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="B133" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="134" spans="1:2">
@@ -2231,7 +2228,7 @@
         <v>181</v>
       </c>
       <c r="B134" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="135" spans="1:2">
@@ -2239,68 +2236,68 @@
         <v>181</v>
       </c>
       <c r="B135" t="s">
-        <v>175</v>
+        <v>183</v>
       </c>
     </row>
     <row r="136" spans="1:2">
       <c r="A136" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="B136" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="137" spans="1:2">
       <c r="A137" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="B137" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="138" spans="1:2">
       <c r="A138" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B138" t="s">
-        <v>187</v>
+        <v>178</v>
       </c>
     </row>
     <row r="139" spans="1:2">
       <c r="A139" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B139" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="140" spans="1:2">
       <c r="A140" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="B140" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="141" spans="1:2">
       <c r="A141" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B141" t="s">
-        <v>151</v>
+        <v>190</v>
       </c>
     </row>
     <row r="142" spans="1:2">
       <c r="A142" t="s">
+        <v>189</v>
+      </c>
+      <c r="B142" t="s">
         <v>191</v>
-      </c>
-      <c r="B142" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="143" spans="1:2">
       <c r="A143" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B143" t="s">
         <v>193</v>
@@ -2311,7 +2308,7 @@
         <v>194</v>
       </c>
       <c r="B144" t="s">
-        <v>195</v>
+        <v>154</v>
       </c>
     </row>
     <row r="145" spans="1:2">
@@ -2319,7 +2316,7 @@
         <v>194</v>
       </c>
       <c r="B145" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="146" spans="1:2">
@@ -2327,12 +2324,12 @@
         <v>194</v>
       </c>
       <c r="B146" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="147" spans="1:2">
       <c r="A147" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="B147" t="s">
         <v>198</v>
@@ -2340,7 +2337,7 @@
     </row>
     <row r="148" spans="1:2">
       <c r="A148" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="B148" t="s">
         <v>199</v>
@@ -2348,7 +2345,7 @@
     </row>
     <row r="149" spans="1:2">
       <c r="A149" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="B149" t="s">
         <v>200</v>
@@ -2356,7 +2353,7 @@
     </row>
     <row r="150" spans="1:2">
       <c r="A150" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="B150" t="s">
         <v>201</v>
@@ -2364,26 +2361,26 @@
     </row>
     <row r="151" spans="1:2">
       <c r="A151" t="s">
+        <v>197</v>
+      </c>
+      <c r="B151" t="s">
         <v>202</v>
-      </c>
-      <c r="B151" t="s">
-        <v>203</v>
       </c>
     </row>
     <row r="152" spans="1:2">
       <c r="A152" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="B152" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="153" spans="1:2">
       <c r="A153" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="B153" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="154" spans="1:2">
@@ -2391,7 +2388,7 @@
         <v>205</v>
       </c>
       <c r="B154" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="155" spans="1:2">
@@ -2399,36 +2396,36 @@
         <v>205</v>
       </c>
       <c r="B155" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="156" spans="1:2">
       <c r="A156" t="s">
+        <v>208</v>
+      </c>
+      <c r="B156" t="s">
         <v>209</v>
-      </c>
-      <c r="B156" t="s">
-        <v>210</v>
       </c>
     </row>
     <row r="157" spans="1:2">
       <c r="A157" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B157" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="158" spans="1:2">
       <c r="A158" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B158" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="159" spans="1:2">
       <c r="A159" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="B159" t="s">
         <v>213</v>
@@ -2436,31 +2433,31 @@
     </row>
     <row r="160" spans="1:2">
       <c r="A160" t="s">
+        <v>212</v>
+      </c>
+      <c r="B160" t="s">
         <v>214</v>
-      </c>
-      <c r="B160" t="s">
-        <v>215</v>
       </c>
     </row>
     <row r="161" spans="1:2">
       <c r="A161" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B161" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="162" spans="1:2">
       <c r="A162" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B162" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="163" spans="1:2">
       <c r="A163" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="B163" t="s">
         <v>218</v>
@@ -2468,26 +2465,26 @@
     </row>
     <row r="164" spans="1:2">
       <c r="A164" t="s">
+        <v>217</v>
+      </c>
+      <c r="B164" t="s">
         <v>219</v>
-      </c>
-      <c r="B164" t="s">
-        <v>220</v>
       </c>
     </row>
     <row r="165" spans="1:2">
       <c r="A165" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B165" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="166" spans="1:2">
       <c r="A166" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="B166" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="167" spans="1:2">
@@ -2495,7 +2492,7 @@
         <v>222</v>
       </c>
       <c r="B167" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="168" spans="1:2">
@@ -2503,12 +2500,12 @@
         <v>222</v>
       </c>
       <c r="B168" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="169" spans="1:2">
       <c r="A169" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="B169" t="s">
         <v>226</v>
@@ -2516,31 +2513,31 @@
     </row>
     <row r="170" spans="1:2">
       <c r="A170" t="s">
+        <v>225</v>
+      </c>
+      <c r="B170" t="s">
         <v>227</v>
-      </c>
-      <c r="B170" t="s">
-        <v>228</v>
       </c>
     </row>
     <row r="171" spans="1:2">
       <c r="A171" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B171" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="172" spans="1:2">
       <c r="A172" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B172" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="173" spans="1:2">
       <c r="A173" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="B173" t="s">
         <v>231</v>
@@ -2548,7 +2545,7 @@
     </row>
     <row r="174" spans="1:2">
       <c r="A174" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="B174" t="s">
         <v>232</v>
@@ -2556,7 +2553,7 @@
     </row>
     <row r="175" spans="1:2">
       <c r="A175" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="B175" t="s">
         <v>233</v>
@@ -2564,7 +2561,7 @@
     </row>
     <row r="176" spans="1:2">
       <c r="A176" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="B176" t="s">
         <v>234</v>
@@ -2572,31 +2569,31 @@
     </row>
     <row r="177" spans="1:2">
       <c r="A177" t="s">
+        <v>230</v>
+      </c>
+      <c r="B177" t="s">
         <v>235</v>
-      </c>
-      <c r="B177" t="s">
-        <v>236</v>
       </c>
     </row>
     <row r="178" spans="1:2">
       <c r="A178" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="B178" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="179" spans="1:2">
       <c r="A179" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="B179" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="180" spans="1:2">
       <c r="A180" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="B180" t="s">
         <v>239</v>
@@ -2604,7 +2601,7 @@
     </row>
     <row r="181" spans="1:2">
       <c r="A181" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="B181" t="s">
         <v>240</v>
@@ -2612,55 +2609,55 @@
     </row>
     <row r="182" spans="1:2">
       <c r="A182" t="s">
+        <v>238</v>
+      </c>
+      <c r="B182" t="s">
         <v>241</v>
-      </c>
-      <c r="B182" t="s">
-        <v>242</v>
       </c>
     </row>
     <row r="183" spans="1:2">
       <c r="A183" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="B183" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="184" spans="1:2">
       <c r="A184" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="B184" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="185" spans="1:2">
       <c r="A185" t="s">
+        <v>244</v>
+      </c>
+      <c r="B185" t="s">
         <v>245</v>
-      </c>
-      <c r="B185" t="s">
-        <v>246</v>
       </c>
     </row>
     <row r="186" spans="1:2">
       <c r="A186" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B186" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="187" spans="1:2">
       <c r="A187" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B187" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="188" spans="1:2">
       <c r="A188" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="B188" t="s">
         <v>249</v>
@@ -2668,55 +2665,55 @@
     </row>
     <row r="189" spans="1:2">
       <c r="A189" t="s">
+        <v>248</v>
+      </c>
+      <c r="B189" t="s">
         <v>250</v>
-      </c>
-      <c r="B189" t="s">
-        <v>251</v>
       </c>
     </row>
     <row r="190" spans="1:2">
       <c r="A190" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="B190" t="s">
-        <v>196</v>
+        <v>251</v>
       </c>
     </row>
     <row r="191" spans="1:2">
       <c r="A191" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="B191" t="s">
-        <v>173</v>
+        <v>252</v>
       </c>
     </row>
     <row r="192" spans="1:2">
       <c r="A192" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="B192" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
     </row>
     <row r="193" spans="1:2">
       <c r="A193" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="B193" t="s">
-        <v>253</v>
+        <v>199</v>
       </c>
     </row>
     <row r="194" spans="1:2">
       <c r="A194" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="B194" t="s">
-        <v>254</v>
+        <v>176</v>
       </c>
     </row>
     <row r="195" spans="1:2">
       <c r="A195" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="B195" t="s">
         <v>255</v>
@@ -2724,50 +2721,50 @@
     </row>
     <row r="196" spans="1:2">
       <c r="A196" t="s">
+        <v>253</v>
+      </c>
+      <c r="B196" t="s">
         <v>256</v>
-      </c>
-      <c r="B196" t="s">
-        <v>257</v>
       </c>
     </row>
     <row r="197" spans="1:2">
       <c r="A197" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="B197" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="198" spans="1:2">
       <c r="A198" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="B198" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="199" spans="1:2">
       <c r="A199" t="s">
+        <v>259</v>
+      </c>
+      <c r="B199" t="s">
         <v>260</v>
-      </c>
-      <c r="B199" t="s">
-        <v>261</v>
       </c>
     </row>
     <row r="200" spans="1:2">
       <c r="A200" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B200" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="201" spans="1:2">
       <c r="A201" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B201" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
   </sheetData>
